--- a/merge_all.xlsx
+++ b/merge_all.xlsx
@@ -594,7 +594,7 @@
         <v>5.32</v>
       </c>
       <c r="T2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -780,7 +780,7 @@
         <v>14.97</v>
       </c>
       <c r="T5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1338,7 +1338,7 @@
         <v>9.19</v>
       </c>
       <c r="T14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1710,7 +1710,7 @@
         <v>18.36</v>
       </c>
       <c r="T20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -2268,7 +2268,7 @@
         <v>7.25</v>
       </c>
       <c r="T29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
